--- a/src/exel/ул. Новая, д. 7, к. 4_250_500.xlsx
+++ b/src/exel/ул. Новая, д. 7, к. 4_250_500.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0892560E-10C9-4F73-8E77-D5C5617E09D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E04BC-A816-406C-ABEC-B17F8596CA0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14325" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
   <dimension ref="A1:AS210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3622,7 +3622,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="9" t="str">
-        <f t="shared" ref="B12:B39" si="27">IF(ISBLANK(C36),"",C35+1)</f>
+        <f t="shared" ref="B36:B39" si="27">IF(ISBLANK(C36),"",C35+1)</f>
         <v/>
       </c>
       <c r="C36" s="9"/>
@@ -3638,7 +3638,7 @@
         <v>27</v>
       </c>
       <c r="H36" s="9" t="str">
-        <f t="shared" ref="H12:H39" si="28">IF(ISBLANK(I36),"",I35+1)</f>
+        <f t="shared" ref="H36:H39" si="28">IF(ISBLANK(I36),"",I35+1)</f>
         <v/>
       </c>
       <c r="I36" s="9"/>
